--- a/testdata/testData.xlsx
+++ b/testdata/testData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="19" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="20" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -37,6 +38,51 @@
   </si>
   <si>
     <t>https://uat.gearchecker.io/</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Invalid Login</t>
+  </si>
+  <si>
+    <t>Valid Login</t>
+  </si>
+  <si>
+    <t>Automation Test Scenarios</t>
+  </si>
+  <si>
+    <t>Test PASS?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>create Activity</t>
+  </si>
+  <si>
+    <t>search Activity</t>
+  </si>
+  <si>
+    <t>create Sub Activity</t>
+  </si>
+  <si>
+    <t>Delete Activity</t>
+  </si>
+  <si>
+    <t>Test #</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
   </si>
 </sst>
 </file>
@@ -78,7 +124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -139,11 +191,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -438,16 +493,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -468,7 +523,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -477,4 +532,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>